--- a/CMMSAPIs/Upload/45/2/0/Import_Users.xlsx
+++ b/CMMSAPIs/Upload/45/2/0/Import_Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\CMMS-.Net-master (42)\CMMS_MYSQL\CMMS-.Net-master\CMMS-.Net-master\CMMSAPIs\Upload\45\2\0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADD8A94-1882-4B1A-BAE0-5221674E43B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7404C223-502F-4D2C-A655-CDDB3F0E0F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6B63AFBF-C7A7-42AE-AAF7-63DD8336D746}"/>
   </bookViews>
@@ -515,7 +515,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
